--- a/wut.xlsx
+++ b/wut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BB</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Justin</t>
   </si>
   <si>
+    <t>140850</t>
+  </si>
+  <si>
     <t>Banque postale</t>
   </si>
   <si>
@@ -35,18 +38,39 @@
     <t>ANG</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>Croissance</t>
   </si>
   <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>EUR</t>
   </si>
   <si>
+    <t>190'000'000</t>
+  </si>
+  <si>
+    <t>200'000'000</t>
+  </si>
+  <si>
     <t>AA</t>
   </si>
   <si>
     <t>Geunièvre</t>
   </si>
   <si>
+    <t>4978987</t>
+  </si>
+  <si>
     <t>woefh</t>
   </si>
   <si>
@@ -56,12 +80,27 @@
     <t>FR</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>Dynamique</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>79'086'548</t>
+  </si>
+  <si>
+    <t>85'000'000</t>
+  </si>
+  <si>
     <t>Fabrice</t>
   </si>
   <si>
+    <t>489654</t>
+  </si>
+  <si>
     <t>Boursorama</t>
   </si>
   <si>
@@ -74,12 +113,24 @@
     <t>Diversifié</t>
   </si>
   <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>900'000</t>
+  </si>
+  <si>
+    <t>1'000'000</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
     <t>Jacquie</t>
   </si>
   <si>
+    <t>645990</t>
+  </si>
+  <si>
     <t>Caisse epargne</t>
   </si>
   <si>
@@ -92,9 +143,18 @@
     <t>Conservateur</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Timothé</t>
   </si>
   <si>
+    <t>6546867</t>
+  </si>
+  <si>
     <t>sdelfknwofn</t>
   </si>
   <si>
@@ -104,9 +164,18 @@
     <t>yield-immo</t>
   </si>
   <si>
+    <t>4'899</t>
+  </si>
+  <si>
+    <t>5'000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gerard </t>
   </si>
   <si>
+    <t>100586</t>
+  </si>
+  <si>
     <t>Crédit agricole</t>
   </si>
   <si>
@@ -122,30 +191,69 @@
     <t>Equilibré</t>
   </si>
   <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>10'000</t>
+  </si>
+  <si>
+    <t>15'000</t>
+  </si>
+  <si>
     <t>Michel</t>
   </si>
   <si>
+    <t>476285</t>
+  </si>
+  <si>
     <t>grrsxg</t>
   </si>
   <si>
     <t>1/1/80</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>500'000</t>
+  </si>
+  <si>
+    <t>600'000</t>
+  </si>
+  <si>
     <t>VV</t>
   </si>
   <si>
     <t>Yoan</t>
   </si>
   <si>
+    <t>4354681</t>
+  </si>
+  <si>
     <t>wefkjoi</t>
   </si>
   <si>
     <t>12/5/45</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>49'876</t>
+  </si>
+  <si>
+    <t>54'000</t>
+  </si>
+  <si>
     <t>Martial</t>
   </si>
   <si>
+    <t>196874</t>
+  </si>
+  <si>
     <t>iNG</t>
   </si>
   <si>
@@ -158,13 +266,28 @@
     <t>BE</t>
   </si>
   <si>
+    <t>800'000'000</t>
+  </si>
+  <si>
+    <t>850'000'000</t>
+  </si>
+  <si>
     <t>Yvan</t>
   </si>
   <si>
+    <t>1786548</t>
+  </si>
+  <si>
     <t>weofiho</t>
   </si>
   <si>
     <t>9/9/01</t>
+  </si>
+  <si>
+    <t>15'489'873</t>
+  </si>
+  <si>
+    <t>20'000'000</t>
   </si>
 </sst>
 </file>
@@ -222,115 +345,115 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="n">
-        <v>140850.0</v>
+      <c r="F1" t="s">
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O1" t="b">
         <v>0</v>
       </c>
-      <c r="P1" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>2018.0</v>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0.0</v>
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" t="n">
-        <v>1.9E8</v>
-      </c>
-      <c r="W1" t="n">
-        <v>2.0E8</v>
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4978987.0</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.9086548E7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.5E7</v>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -338,117 +461,117 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="n">
-        <v>489654.0</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>900000.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1000000.0</v>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>645990.0</v>
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.0</v>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -456,353 +579,353 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6546867.0</v>
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4899.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5000.0</v>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100586.0</v>
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15000.0</v>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="n">
-        <v>476285.0</v>
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>500000.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>600000.0</v>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4354681.0</v>
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>49876.0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>54000.0</v>
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="n">
-        <v>196874.0</v>
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
       </c>
-      <c r="P9" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2018.0</v>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
       </c>
       <c r="R9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>12</v>
       </c>
       <c r="U9" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8.0E8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5E8</v>
+        <v>13</v>
+      </c>
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1786548.0</v>
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2018.0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.5489873E7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.0E7</v>
+      <c r="V10" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
